--- a/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.14350722803448</v>
+        <v>2.766075824734571</v>
       </c>
       <c r="C2">
-        <v>1.178844673645301</v>
+        <v>0.6935696687066581</v>
       </c>
       <c r="D2">
-        <v>0.00698828725045253</v>
+        <v>0.02366419422781973</v>
       </c>
       <c r="E2">
-        <v>1.474778833231142</v>
+        <v>1.445944237492782</v>
       </c>
       <c r="F2">
-        <v>1.714092550285656</v>
+        <v>0.6351620925894679</v>
       </c>
       <c r="G2">
-        <v>0.0007539836156979705</v>
+        <v>0.0007668456388605915</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4706773476428801</v>
+        <v>0.5562123999111108</v>
       </c>
       <c r="O2">
-        <v>1.327098136922601</v>
+        <v>1.800833773841987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.566183993463369</v>
+        <v>2.40177832543344</v>
       </c>
       <c r="C3">
-        <v>1.015920976767575</v>
+        <v>0.6088615173242147</v>
       </c>
       <c r="D3">
-        <v>0.007691655324913782</v>
+        <v>0.02117902750486778</v>
       </c>
       <c r="E3">
-        <v>1.256438016091366</v>
+        <v>1.239906624912422</v>
       </c>
       <c r="F3">
-        <v>1.502446439483364</v>
+        <v>0.5653377260186474</v>
       </c>
       <c r="G3">
-        <v>0.0007630267884154371</v>
+        <v>0.0007718564862976923</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5187829557980734</v>
+        <v>0.5717217675983619</v>
       </c>
       <c r="O3">
-        <v>1.166217185895405</v>
+        <v>1.616335108191691</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.217617698628828</v>
+        <v>2.17897888455758</v>
       </c>
       <c r="C4">
-        <v>0.9175028263111358</v>
+        <v>0.5569570407547246</v>
       </c>
       <c r="D4">
-        <v>0.008217983098059989</v>
+        <v>0.0196497225301755</v>
       </c>
       <c r="E4">
-        <v>1.126481423933441</v>
+        <v>1.1159859786748</v>
       </c>
       <c r="F4">
-        <v>1.377629826797389</v>
+        <v>0.5239956972595365</v>
       </c>
       <c r="G4">
-        <v>0.0007686898926411354</v>
+        <v>0.0007750198867462512</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.549915153026344</v>
+        <v>0.58222997129063</v>
       </c>
       <c r="O4">
-        <v>1.071671404776126</v>
+        <v>1.508111700071169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.076817238794263</v>
+        <v>2.088355057200317</v>
       </c>
       <c r="C5">
-        <v>0.8777304065780811</v>
+        <v>0.5358209189051024</v>
       </c>
       <c r="D5">
-        <v>0.008453379607542999</v>
+        <v>0.01902552544517278</v>
       </c>
       <c r="E5">
-        <v>1.074382196735982</v>
+        <v>1.066037820414053</v>
       </c>
       <c r="F5">
-        <v>1.3278962779316</v>
+        <v>0.5074979187774389</v>
       </c>
       <c r="G5">
-        <v>0.0007710281498618463</v>
+        <v>0.000776331587236995</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5629779801435468</v>
+        <v>0.5867501311130781</v>
       </c>
       <c r="O5">
-        <v>1.034076370126527</v>
+        <v>1.465167673210971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.05350587778122</v>
+        <v>2.073315767293764</v>
       </c>
       <c r="C6">
-        <v>0.8711444039209653</v>
+        <v>0.5323118939672042</v>
       </c>
       <c r="D6">
-        <v>0.008493654247667237</v>
+        <v>0.01892181442550722</v>
       </c>
       <c r="E6">
-        <v>1.065778391761455</v>
+        <v>1.057774459947751</v>
       </c>
       <c r="F6">
-        <v>1.319701935885647</v>
+        <v>0.504778591034075</v>
       </c>
       <c r="G6">
-        <v>0.0007714183311034877</v>
+        <v>0.0007765507803558975</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5651690957580264</v>
+        <v>0.5875147994057031</v>
       </c>
       <c r="O6">
-        <v>1.02788650812515</v>
+        <v>1.458103591232714</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.215714084177932</v>
+        <v>2.177756083411964</v>
       </c>
       <c r="C7">
-        <v>0.9169651807230821</v>
+        <v>0.5566719438162409</v>
       </c>
       <c r="D7">
-        <v>0.008221076537086702</v>
+        <v>0.01964130857593105</v>
       </c>
       <c r="E7">
-        <v>1.125775530179453</v>
+        <v>1.115310257103971</v>
       </c>
       <c r="F7">
-        <v>1.376954726961515</v>
+        <v>0.5237718326300893</v>
       </c>
       <c r="G7">
-        <v>0.0007687213003510665</v>
+        <v>0.0007750374843990557</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5500898306460797</v>
+        <v>0.5822899806464434</v>
       </c>
       <c r="O7">
-        <v>1.071160770998276</v>
+        <v>1.507527999000473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.94306375537667</v>
+        <v>2.640250154873627</v>
       </c>
       <c r="C8">
-        <v>1.122286199043685</v>
+        <v>0.6643329365417401</v>
       </c>
       <c r="D8">
-        <v>0.007209370913903612</v>
+        <v>0.02280792460668835</v>
       </c>
       <c r="E8">
-        <v>1.39853130848519</v>
+        <v>1.374302274697115</v>
       </c>
       <c r="F8">
-        <v>1.639948686948927</v>
+        <v>0.6107469108418897</v>
       </c>
       <c r="G8">
-        <v>0.0007570804717527956</v>
+        <v>0.0007685558694685088</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4869172371947172</v>
+        <v>0.5613494090822684</v>
       </c>
       <c r="O8">
-        <v>1.270663158652397</v>
+        <v>1.736097088462628</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.428941495015977</v>
+        <v>3.556828783312994</v>
       </c>
       <c r="C9">
-        <v>1.541563905425051</v>
+        <v>0.8768823404829789</v>
       </c>
       <c r="D9">
-        <v>0.006126776616325103</v>
+        <v>0.02899840950839661</v>
       </c>
       <c r="E9">
-        <v>1.97519008763183</v>
+        <v>1.907774086398788</v>
       </c>
       <c r="F9">
-        <v>2.204745418898753</v>
+        <v>0.7951869352119019</v>
       </c>
       <c r="G9">
-        <v>0.0007349904885648662</v>
+        <v>0.0007564949147425843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3769729673961848</v>
+        <v>0.5285796361901873</v>
       </c>
       <c r="O9">
-        <v>1.702327048051728</v>
+        <v>2.23008865042047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.577634080847247</v>
+        <v>4.24022409925584</v>
       </c>
       <c r="C10">
-        <v>1.866046203857991</v>
+        <v>1.034827047540517</v>
       </c>
       <c r="D10">
-        <v>0.006140151042371755</v>
+        <v>0.03354828273404564</v>
       </c>
       <c r="E10">
-        <v>2.439945480857276</v>
+        <v>2.323337497430771</v>
       </c>
       <c r="F10">
-        <v>2.663230115774155</v>
+        <v>0.9418197442609255</v>
       </c>
       <c r="G10">
-        <v>0.000718981555075148</v>
+        <v>0.0007479702662119451</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3067763714289633</v>
+        <v>0.5102778712968856</v>
       </c>
       <c r="O10">
-        <v>2.055318637935997</v>
+        <v>2.629545654824454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.118317606976461</v>
+        <v>4.554326490604694</v>
       </c>
       <c r="C11">
-        <v>2.018991475936048</v>
+        <v>1.107302658041846</v>
       </c>
       <c r="D11">
-        <v>0.006397943772913806</v>
+        <v>0.03562227541059571</v>
       </c>
       <c r="E11">
-        <v>2.664833308552232</v>
+        <v>2.519627821551396</v>
       </c>
       <c r="F11">
-        <v>2.885026321186416</v>
+        <v>1.011609173056428</v>
       </c>
       <c r="G11">
-        <v>0.0007116828940548162</v>
+        <v>0.0007441503156697329</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2777152484127079</v>
+        <v>0.503382420255889</v>
       </c>
       <c r="O11">
-        <v>2.226793257924143</v>
+        <v>2.821365197190516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.326259543172</v>
+        <v>4.673829337696986</v>
       </c>
       <c r="C12">
-        <v>2.07785856500044</v>
+        <v>1.134859493486772</v>
       </c>
       <c r="D12">
-        <v>0.006540035619291729</v>
+        <v>0.03640862397074329</v>
       </c>
       <c r="E12">
-        <v>2.752419002072799</v>
+        <v>2.595207259745806</v>
       </c>
       <c r="F12">
-        <v>2.971306438150179</v>
+        <v>1.038542902274841</v>
       </c>
       <c r="G12">
-        <v>0.0007089101576999504</v>
+        <v>0.0007427107301547542</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2671832342648912</v>
+        <v>0.5009933608090975</v>
       </c>
       <c r="O12">
-        <v>2.29361486334453</v>
+        <v>2.895659445373582</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.281322709001699</v>
+        <v>4.648065750147339</v>
       </c>
       <c r="C13">
-        <v>2.065134913761824</v>
+        <v>1.128919279874935</v>
       </c>
       <c r="D13">
-        <v>0.006507302394066272</v>
+        <v>0.03623921998698165</v>
       </c>
       <c r="E13">
-        <v>2.733438932744718</v>
+        <v>2.578870728508463</v>
       </c>
       <c r="F13">
-        <v>2.952615573219447</v>
+        <v>1.032718669950626</v>
       </c>
       <c r="G13">
-        <v>0.0007095078308777989</v>
+        <v>0.0007430204855868364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2694293846382365</v>
+        <v>0.5014977307945472</v>
       </c>
       <c r="O13">
-        <v>2.279133864549749</v>
+        <v>2.879581692973062</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.135357257093631</v>
+        <v>4.564146268261425</v>
       </c>
       <c r="C14">
-        <v>2.023814285618414</v>
+        <v>1.109567397300083</v>
       </c>
       <c r="D14">
-        <v>0.006408687978366245</v>
+        <v>0.035686946971488</v>
       </c>
       <c r="E14">
-        <v>2.671987208824305</v>
+        <v>2.525819472960691</v>
       </c>
       <c r="F14">
-        <v>2.892076229425015</v>
+        <v>1.013814504422228</v>
       </c>
       <c r="G14">
-        <v>0.0007114550000482068</v>
+        <v>0.0007440317493880345</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2768389130982314</v>
+        <v>0.5031813198843267</v>
       </c>
       <c r="O14">
-        <v>2.232250807696531</v>
+        <v>2.827442985638669</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.046384972066221</v>
+        <v>4.512819004847529</v>
       </c>
       <c r="C15">
-        <v>1.998633990043231</v>
+        <v>1.097729080993531</v>
       </c>
       <c r="D15">
-        <v>0.006354354514133576</v>
+        <v>0.03534880236537674</v>
       </c>
       <c r="E15">
-        <v>2.63467860755344</v>
+        <v>2.493493290864308</v>
       </c>
       <c r="F15">
-        <v>2.855305281632099</v>
+        <v>1.002303020489009</v>
       </c>
       <c r="G15">
-        <v>0.0007126463215056888</v>
+        <v>0.0007446520384538977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2814410100324309</v>
+        <v>0.5042420055257253</v>
       </c>
       <c r="O15">
-        <v>2.203790053243324</v>
+        <v>2.795728660701144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.542711888450583</v>
+        <v>4.219769543266636</v>
       </c>
       <c r="C16">
-        <v>1.856173046700007</v>
+        <v>1.030104997953288</v>
       </c>
       <c r="D16">
-        <v>0.006129033043524856</v>
+        <v>0.03341285727058363</v>
       </c>
       <c r="E16">
-        <v>2.425558814246983</v>
+        <v>2.310672268165646</v>
       </c>
       <c r="F16">
-        <v>2.649032936674729</v>
+        <v>0.9373260975693825</v>
       </c>
       <c r="G16">
-        <v>0.0007194576828442439</v>
+        <v>0.0007482209603067192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3087382320958447</v>
+        <v>0.5107586538619486</v>
       </c>
       <c r="O16">
-        <v>2.044357675143615</v>
+        <v>2.61722998698599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.238754776652854</v>
+        <v>4.040883212277947</v>
       </c>
       <c r="C17">
-        <v>1.770263591125229</v>
+        <v>0.988794820117505</v>
       </c>
       <c r="D17">
-        <v>0.006060584156893256</v>
+        <v>0.03222654104937561</v>
       </c>
       <c r="E17">
-        <v>2.301034138905422</v>
+        <v>2.200511482662009</v>
       </c>
       <c r="F17">
-        <v>2.526133568485079</v>
+        <v>0.8982973165621786</v>
       </c>
       <c r="G17">
-        <v>0.0007236278217604015</v>
+        <v>0.0007504242849872776</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3262588609857175</v>
+        <v>0.5151339177274465</v>
       </c>
       <c r="O17">
-        <v>1.94955153038255</v>
+        <v>2.510452439651232</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.065592756200147</v>
+        <v>3.938289491072339</v>
       </c>
       <c r="C18">
-        <v>1.721340231052181</v>
+        <v>0.9650917334263625</v>
       </c>
       <c r="D18">
-        <v>0.006044313024508696</v>
+        <v>0.03154457643019271</v>
       </c>
       <c r="E18">
-        <v>2.230643578881953</v>
+        <v>2.137818183715169</v>
       </c>
       <c r="F18">
-        <v>2.456663175162234</v>
+        <v>0.8761352961822979</v>
       </c>
       <c r="G18">
-        <v>0.0007260253192380439</v>
+        <v>0.0007516971260415897</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3366023852106643</v>
+        <v>0.5177839906011243</v>
       </c>
       <c r="O18">
-        <v>1.896024777761241</v>
+        <v>2.449974460666056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.007233069816323</v>
+        <v>3.903601285272714</v>
       </c>
       <c r="C19">
-        <v>1.704854703617002</v>
+        <v>0.9570755170224743</v>
       </c>
       <c r="D19">
-        <v>0.006042549135081288</v>
+        <v>0.03131372893758311</v>
       </c>
       <c r="E19">
-        <v>2.20700913677544</v>
+        <v>2.116700283170317</v>
       </c>
       <c r="F19">
-        <v>2.43334024316799</v>
+        <v>0.8686790016180481</v>
       </c>
       <c r="G19">
-        <v>0.0007268370690951292</v>
+        <v>0.0007521290805577561</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3401485859284392</v>
+        <v>0.5187037184814329</v>
       </c>
       <c r="O19">
-        <v>1.878065049501089</v>
+        <v>2.429652869573829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.270935190454168</v>
+        <v>4.059894574671432</v>
       </c>
       <c r="C20">
-        <v>1.779356931592702</v>
+        <v>0.9931862648751917</v>
       </c>
       <c r="D20">
-        <v>0.006065426101185878</v>
+        <v>0.03235278538799946</v>
       </c>
       <c r="E20">
-        <v>2.314159231323572</v>
+        <v>2.212167724330399</v>
       </c>
       <c r="F20">
-        <v>2.539087772084883</v>
+        <v>0.9024219362709971</v>
       </c>
       <c r="G20">
-        <v>0.0007231840560893987</v>
+        <v>0.0007501891727083278</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3243658195137868</v>
+        <v>0.5146542286176157</v>
       </c>
       <c r="O20">
-        <v>1.959537846915651</v>
+        <v>2.521720649380342</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.178138814532588</v>
+        <v>4.588779461847025</v>
       </c>
       <c r="C21">
-        <v>2.035923728378407</v>
+        <v>1.115248288760228</v>
       </c>
       <c r="D21">
-        <v>0.006436370625987564</v>
+        <v>0.03584913332388595</v>
       </c>
       <c r="E21">
-        <v>2.689966765398523</v>
+        <v>2.541366229913933</v>
       </c>
       <c r="F21">
-        <v>2.909792454195269</v>
+        <v>1.019352852144877</v>
       </c>
       <c r="G21">
-        <v>0.0007108833697769239</v>
+        <v>0.0007437345400813781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2746491881430053</v>
+        <v>0.5026806423544272</v>
       </c>
       <c r="O21">
-        <v>2.245967383413969</v>
+        <v>2.8427106978327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.790046211735842</v>
+        <v>4.937747991118897</v>
       </c>
       <c r="C22">
-        <v>2.20925664040584</v>
+        <v>1.195687391069441</v>
       </c>
       <c r="D22">
-        <v>0.006943415528045449</v>
+        <v>0.03814008571278293</v>
       </c>
       <c r="E22">
-        <v>2.950034923973988</v>
+        <v>2.763913144149157</v>
       </c>
       <c r="F22">
-        <v>3.165661440859964</v>
+        <v>1.098757440348294</v>
       </c>
       <c r="G22">
-        <v>0.000702788228868199</v>
+        <v>0.0007395557873040688</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2449491608855148</v>
+        <v>0.4961585719297901</v>
       </c>
       <c r="O22">
-        <v>2.444368572556243</v>
+        <v>3.062262686443887</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.461494809560008</v>
+        <v>4.751159241000892</v>
       </c>
       <c r="C23">
-        <v>2.116157717933049</v>
+        <v>1.152686720518261</v>
       </c>
       <c r="D23">
-        <v>0.00664529928922164</v>
+        <v>0.03691668479666532</v>
       </c>
       <c r="E23">
-        <v>2.809715123391697</v>
+        <v>2.644382363287576</v>
       </c>
       <c r="F23">
-        <v>3.027706152803916</v>
+        <v>1.056082249980903</v>
       </c>
       <c r="G23">
-        <v>0.0007071164201274158</v>
+        <v>0.0007417829347003533</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2605221137755578</v>
+        <v>0.499514410855376</v>
       </c>
       <c r="O23">
-        <v>2.337329323237881</v>
+        <v>2.944116540809546</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.256381525197526</v>
+        <v>4.051298764839885</v>
       </c>
       <c r="C24">
-        <v>1.775244390642285</v>
+        <v>0.9912007489061239</v>
       </c>
       <c r="D24">
-        <v>0.00606316576338628</v>
+        <v>0.03229571014876598</v>
       </c>
       <c r="E24">
-        <v>2.308221673575687</v>
+        <v>2.206895960418933</v>
       </c>
       <c r="F24">
-        <v>2.533227510524398</v>
+        <v>0.9005563401891408</v>
       </c>
       <c r="G24">
-        <v>0.0007233846820047178</v>
+        <v>0.0007502954478565405</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3252208248166184</v>
+        <v>0.5148706778057317</v>
       </c>
       <c r="O24">
-        <v>1.955020008576966</v>
+        <v>2.516623472838376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.01865287510094</v>
+        <v>3.307439118616003</v>
       </c>
       <c r="C25">
-        <v>1.425768372471168</v>
+        <v>0.819140975893248</v>
       </c>
       <c r="D25">
-        <v>0.006299421409387662</v>
+        <v>0.02732452594122492</v>
       </c>
       <c r="E25">
-        <v>1.813279072436288</v>
+        <v>1.759949175198344</v>
       </c>
       <c r="F25">
-        <v>2.045422202461992</v>
+        <v>0.7435453413936841</v>
       </c>
       <c r="G25">
-        <v>0.0007409089190076311</v>
+        <v>0.0007596939771575123</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4050283643520132</v>
+        <v>0.5364864080669847</v>
       </c>
       <c r="O25">
-        <v>1.580171624134067</v>
+        <v>2.090711759122769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.766075824734571</v>
+        <v>2.311539475890754</v>
       </c>
       <c r="C2">
-        <v>0.6935696687066581</v>
+        <v>0.6230999149370291</v>
       </c>
       <c r="D2">
-        <v>0.02366419422781973</v>
+        <v>0.04803610698458982</v>
       </c>
       <c r="E2">
-        <v>1.445944237492782</v>
+        <v>1.40533533673387</v>
       </c>
       <c r="F2">
-        <v>0.6351620925894679</v>
+        <v>0.4171523129321599</v>
       </c>
       <c r="G2">
-        <v>0.0007668456388605915</v>
+        <v>0.3128793325521286</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01703255041029095</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2251802522341535</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.125144971613647</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5562123999111108</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.800833773841987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.746841812291791</v>
+      </c>
+      <c r="Q2">
+        <v>1.086103868445974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.40177832543344</v>
+        <v>2.017794310379315</v>
       </c>
       <c r="C3">
-        <v>0.6088615173242147</v>
+        <v>0.5487294939716492</v>
       </c>
       <c r="D3">
-        <v>0.02117902750486778</v>
+        <v>0.04208921018738465</v>
       </c>
       <c r="E3">
-        <v>1.239906624912422</v>
+        <v>1.229782808969617</v>
       </c>
       <c r="F3">
-        <v>0.5653377260186474</v>
+        <v>0.3762687894292469</v>
       </c>
       <c r="G3">
-        <v>0.0007718564862976923</v>
+        <v>0.2804917670887903</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01321623683351997</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2142568111787426</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1250168663526026</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5717217675983619</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.616335108191691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.730068083940381</v>
+      </c>
+      <c r="Q3">
+        <v>0.9942751995196204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.17897888455758</v>
+        <v>1.837151126568045</v>
       </c>
       <c r="C4">
-        <v>0.5569570407547246</v>
+        <v>0.5029874792629982</v>
       </c>
       <c r="D4">
-        <v>0.0196497225301755</v>
+        <v>0.03842647643988073</v>
       </c>
       <c r="E4">
-        <v>1.1159859786748</v>
+        <v>1.122156251399687</v>
       </c>
       <c r="F4">
-        <v>0.5239956972595365</v>
+        <v>0.3517539148517344</v>
       </c>
       <c r="G4">
-        <v>0.0007750198867462512</v>
+        <v>0.2611093837930198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01104235655624386</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2078784158366318</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1253143966464982</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.58222997129063</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.508111700071169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7203541007822096</v>
+      </c>
+      <c r="Q4">
+        <v>0.939639812685698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.088355057200317</v>
+        <v>1.763455447156247</v>
       </c>
       <c r="C5">
-        <v>0.5358209189051024</v>
+        <v>0.4843249420085272</v>
       </c>
       <c r="D5">
-        <v>0.01902552544517278</v>
+        <v>0.03693087730838585</v>
       </c>
       <c r="E5">
-        <v>1.066037820414053</v>
+        <v>1.078320633492595</v>
       </c>
       <c r="F5">
-        <v>0.5074979187774389</v>
+        <v>0.3419007407977617</v>
       </c>
       <c r="G5">
-        <v>0.000776331587236995</v>
+        <v>0.2533273248675201</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01019524420147297</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2053571750384648</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1255252498626795</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5867501311130781</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.465167673210971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7165373577762963</v>
+      </c>
+      <c r="Q5">
+        <v>0.9177835197155702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.073315767293764</v>
+        <v>1.751213067535787</v>
       </c>
       <c r="C6">
-        <v>0.5323118939672042</v>
+        <v>0.4812246228444792</v>
       </c>
       <c r="D6">
-        <v>0.01892181442550722</v>
+        <v>0.03668234825096306</v>
       </c>
       <c r="E6">
-        <v>1.057774459947751</v>
+        <v>1.071042644695893</v>
       </c>
       <c r="F6">
-        <v>0.504778591034075</v>
+        <v>0.3402725815656424</v>
       </c>
       <c r="G6">
-        <v>0.0007765507803558975</v>
+        <v>0.2520418601858907</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01005681378974708</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2049431046877999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1255655317854707</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5875147994057031</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.458103591232714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7159120031678796</v>
+      </c>
+      <c r="Q6">
+        <v>0.9141780520987481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.177756083411964</v>
+        <v>1.836157587429483</v>
       </c>
       <c r="C7">
-        <v>0.5566719438162409</v>
+        <v>0.502735883341046</v>
       </c>
       <c r="D7">
-        <v>0.01964130857593105</v>
+        <v>0.0384063186387209</v>
       </c>
       <c r="E7">
-        <v>1.115310257103971</v>
+        <v>1.121564998731984</v>
       </c>
       <c r="F7">
-        <v>0.5237718326300893</v>
+        <v>0.3516204916094736</v>
       </c>
       <c r="G7">
-        <v>0.0007750374843990557</v>
+        <v>0.2610039740664334</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01103078011030054</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2078441036310039</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.125316883919691</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5822899806464434</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.507527999000473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7203020596268743</v>
+      </c>
+      <c r="Q7">
+        <v>0.9393434393668656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.640250154873627</v>
+        <v>2.210307763012338</v>
       </c>
       <c r="C8">
-        <v>0.6643329365417401</v>
+        <v>0.5974715848940946</v>
       </c>
       <c r="D8">
-        <v>0.02280792460668835</v>
+        <v>0.04598786358263851</v>
       </c>
       <c r="E8">
-        <v>1.374302274697115</v>
+        <v>1.344759782303598</v>
       </c>
       <c r="F8">
-        <v>0.6107469108418897</v>
+        <v>0.4029269272578659</v>
       </c>
       <c r="G8">
-        <v>0.0007685558694685088</v>
+        <v>0.3016012448466938</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01567919140461793</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2213427869091902</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1250196601687996</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5613494090822684</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.736097088462628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.740933455608058</v>
+      </c>
+      <c r="Q8">
+        <v>1.054059233832731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.556828783312994</v>
+        <v>2.942349470451745</v>
       </c>
       <c r="C9">
-        <v>0.8768823404829789</v>
+        <v>0.7827637689490246</v>
       </c>
       <c r="D9">
-        <v>0.02899840950839661</v>
+        <v>0.06077400546488576</v>
       </c>
       <c r="E9">
-        <v>1.907774086398788</v>
+        <v>1.784610010620213</v>
       </c>
       <c r="F9">
-        <v>0.7951869352119019</v>
+        <v>0.5087242289232208</v>
       </c>
       <c r="G9">
-        <v>0.0007564949147425843</v>
+        <v>0.3856960507812772</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02631780805670347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.250641357192336</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1276561567730745</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5285796361901873</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.23008865042047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7862940907917846</v>
+      </c>
+      <c r="Q9">
+        <v>1.294378032333043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.24022409925584</v>
+        <v>3.468512121212598</v>
       </c>
       <c r="C10">
-        <v>1.034827047540517</v>
+        <v>0.9128801202501222</v>
       </c>
       <c r="D10">
-        <v>0.03354828273404564</v>
+        <v>0.07250386858086699</v>
       </c>
       <c r="E10">
-        <v>2.323337497430771</v>
+        <v>2.006799136532692</v>
       </c>
       <c r="F10">
-        <v>0.9418197442609255</v>
+        <v>0.583662010000829</v>
       </c>
       <c r="G10">
-        <v>0.0007479702662119451</v>
+        <v>0.4440356278180388</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03448144560635713</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2709049897842704</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1298341148852913</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5102778712968856</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.629545654824454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8288731668397276</v>
+      </c>
+      <c r="Q10">
+        <v>1.460947285656317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554326490604694</v>
+        <v>3.606915577196389</v>
       </c>
       <c r="C11">
-        <v>1.107302658041846</v>
+        <v>0.9206707954785429</v>
       </c>
       <c r="D11">
-        <v>0.03562227541059571</v>
+        <v>0.08606952928728617</v>
       </c>
       <c r="E11">
-        <v>2.519627821551396</v>
+        <v>1.308497107797365</v>
       </c>
       <c r="F11">
-        <v>1.011609173056428</v>
+        <v>0.5607386358347242</v>
       </c>
       <c r="G11">
-        <v>0.0007441503156697329</v>
+        <v>0.4125706678967873</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04924895636024473</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2521764822756722</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1139723680709892</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.503382420255889</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.821365197190516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9024615302943459</v>
+      </c>
+      <c r="Q11">
+        <v>1.355164336326226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.673829337696986</v>
+        <v>3.611633261167583</v>
       </c>
       <c r="C12">
-        <v>1.134859493486772</v>
+        <v>0.8999937350293692</v>
       </c>
       <c r="D12">
-        <v>0.03640862397074329</v>
+        <v>0.09557263071728528</v>
       </c>
       <c r="E12">
-        <v>2.595207259745806</v>
+        <v>0.8053573381471182</v>
       </c>
       <c r="F12">
-        <v>1.038542902274841</v>
+        <v>0.5257425630384418</v>
       </c>
       <c r="G12">
-        <v>0.0007427107301547542</v>
+        <v>0.3747821497164665</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08462372839539967</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2322977162236555</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1006029419663861</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5009933608090975</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.895659445373582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9583582311066721</v>
+      </c>
+      <c r="Q12">
+        <v>1.233463077684291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.648065750147339</v>
+        <v>3.513887195995551</v>
       </c>
       <c r="C13">
-        <v>1.128919279874935</v>
+        <v>0.8564677175295685</v>
       </c>
       <c r="D13">
-        <v>0.03623921998698165</v>
+        <v>0.1023835808440481</v>
       </c>
       <c r="E13">
-        <v>2.578870728508463</v>
+        <v>0.4231948684062274</v>
       </c>
       <c r="F13">
-        <v>1.032718669950626</v>
+        <v>0.4795043586558805</v>
       </c>
       <c r="G13">
-        <v>0.0007430204855868364</v>
+        <v>0.3300634650546499</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1371391196472018</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2103935986551591</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.08829736416724288</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5014977307945472</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.879581692973062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.002771311769465</v>
+      </c>
+      <c r="Q13">
+        <v>1.092750448883578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564146268261425</v>
+        <v>3.399609182779841</v>
       </c>
       <c r="C14">
-        <v>1.109567397300083</v>
+        <v>0.8160046103403431</v>
       </c>
       <c r="D14">
-        <v>0.035686946971488</v>
+        <v>0.1059322499893938</v>
       </c>
       <c r="E14">
-        <v>2.525819472960691</v>
+        <v>0.2289452502351779</v>
       </c>
       <c r="F14">
-        <v>1.013814504422228</v>
+        <v>0.4424567538677664</v>
       </c>
       <c r="G14">
-        <v>0.0007440317493880345</v>
+        <v>0.2961315269281641</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.184373303294052</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1943379407134245</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.08032549774280717</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5031813198843267</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.827442985638669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.028538413075296</v>
+      </c>
+      <c r="Q14">
+        <v>0.9871299290523154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.512819004847529</v>
+        <v>3.350222124345294</v>
       </c>
       <c r="C15">
-        <v>1.097729080993531</v>
+        <v>0.8013372595220574</v>
       </c>
       <c r="D15">
-        <v>0.03534880236537674</v>
+        <v>0.1061345719917455</v>
       </c>
       <c r="E15">
-        <v>2.493493290864308</v>
+        <v>0.1907094756445993</v>
       </c>
       <c r="F15">
-        <v>1.002303020489009</v>
+        <v>0.4310812263000443</v>
       </c>
       <c r="G15">
-        <v>0.0007446520384538977</v>
+        <v>0.2863157017938107</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1961819927512636</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1899951322878195</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.07855417287026611</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5042420055257253</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.795728660701144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.031835914920805</v>
+      </c>
+      <c r="Q15">
+        <v>0.957192162289175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.219769543266636</v>
+        <v>3.146135322655198</v>
       </c>
       <c r="C16">
-        <v>1.030104997953288</v>
+        <v>0.75561361853363</v>
       </c>
       <c r="D16">
-        <v>0.03341285727058363</v>
+        <v>0.09940642011672196</v>
       </c>
       <c r="E16">
-        <v>2.310672268165646</v>
+        <v>0.187154437642576</v>
       </c>
       <c r="F16">
-        <v>0.9373260975693825</v>
+        <v>0.4088971789023148</v>
       </c>
       <c r="G16">
-        <v>0.0007482209603067192</v>
+        <v>0.2711062297088063</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1808726671904708</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1859361268822255</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.07997216838002608</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5107586538619486</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.61722998698599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.001361200124748</v>
+      </c>
+      <c r="Q16">
+        <v>0.916261967271538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.040883212277947</v>
+        <v>3.050190425270728</v>
       </c>
       <c r="C17">
-        <v>0.988794820117505</v>
+        <v>0.7418107277823083</v>
       </c>
       <c r="D17">
-        <v>0.03222654104937561</v>
+        <v>0.09238095963446824</v>
       </c>
       <c r="E17">
-        <v>2.200511482662009</v>
+        <v>0.2739028841677325</v>
       </c>
       <c r="F17">
-        <v>0.8982973165621786</v>
+        <v>0.4114869477761616</v>
       </c>
       <c r="G17">
-        <v>0.0007504242849872776</v>
+        <v>0.2772801272933805</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1421582190753128</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1913262616014322</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08530470197416662</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5151339177274465</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.510452439651232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9647470509696916</v>
+      </c>
+      <c r="Q17">
+        <v>0.940527615179775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.938289491072339</v>
+        <v>3.035997722516527</v>
       </c>
       <c r="C18">
-        <v>0.9650917334263625</v>
+        <v>0.7541359190756509</v>
       </c>
       <c r="D18">
-        <v>0.03154457643019271</v>
+        <v>0.08449769175216915</v>
       </c>
       <c r="E18">
-        <v>2.137818183715169</v>
+        <v>0.5120568545697708</v>
       </c>
       <c r="F18">
-        <v>0.8761352961822979</v>
+        <v>0.4358512059991924</v>
       </c>
       <c r="G18">
-        <v>0.0007516971260415897</v>
+        <v>0.3031644196981347</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09021960325883072</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2056046299515941</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09483640463874821</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5177839906011243</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.449974460666056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9195805740940273</v>
+      </c>
+      <c r="Q18">
+        <v>1.025252272772292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.903601285272714</v>
+        <v>3.08892504487568</v>
       </c>
       <c r="C19">
-        <v>0.9570755170224743</v>
+        <v>0.7872876920282295</v>
       </c>
       <c r="D19">
-        <v>0.03131372893758311</v>
+        <v>0.07675257161464089</v>
       </c>
       <c r="E19">
-        <v>2.116700283170317</v>
+        <v>0.9534261548603951</v>
       </c>
       <c r="F19">
-        <v>0.8686790016180481</v>
+        <v>0.47677755575139</v>
       </c>
       <c r="G19">
-        <v>0.0007521290805577561</v>
+        <v>0.3444616222017487</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04817274330528676</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.226463114543904</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1075929653948897</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5187037184814329</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.429652869573829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8720056139338226</v>
+      </c>
+      <c r="Q19">
+        <v>1.156492244617624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.059894574671432</v>
+        <v>3.329893198600814</v>
       </c>
       <c r="C20">
-        <v>0.9931862648751917</v>
+        <v>0.8784845818219651</v>
       </c>
       <c r="D20">
-        <v>0.03235278538799946</v>
+        <v>0.06946038158334034</v>
       </c>
       <c r="E20">
-        <v>2.212167724330399</v>
+        <v>1.944019146859318</v>
       </c>
       <c r="F20">
-        <v>0.9024219362709971</v>
+        <v>0.5634239314373559</v>
       </c>
       <c r="G20">
-        <v>0.0007501891727083278</v>
+        <v>0.428183255280743</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03220092742240066</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2653003282500208</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.129007898090336</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5146542286176157</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.521720649380342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8176639551833347</v>
+      </c>
+      <c r="Q20">
+        <v>1.415486188158354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588779461847025</v>
+        <v>3.751668296465027</v>
       </c>
       <c r="C21">
-        <v>1.115248288760228</v>
+        <v>0.9875247773132685</v>
       </c>
       <c r="D21">
-        <v>0.03584913332388595</v>
+        <v>0.07706071784863866</v>
       </c>
       <c r="E21">
-        <v>2.541366229913933</v>
+        <v>2.27578029148934</v>
       </c>
       <c r="F21">
-        <v>1.019352852144877</v>
+        <v>0.6327727992021295</v>
       </c>
       <c r="G21">
-        <v>0.0007437345400813781</v>
+        <v>0.4848985638213321</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.04023187930770122</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2867053613820332</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1346996796165172</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5026806423544272</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.8427106978327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8424625933209029</v>
+      </c>
+      <c r="Q21">
+        <v>1.580896038070364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.937747991118897</v>
+        <v>4.021754784532106</v>
       </c>
       <c r="C22">
-        <v>1.195687391069441</v>
+        <v>1.055837565074199</v>
       </c>
       <c r="D22">
-        <v>0.03814008571278293</v>
+        <v>0.08248348367337854</v>
       </c>
       <c r="E22">
-        <v>2.763913144149157</v>
+        <v>2.440834272279361</v>
       </c>
       <c r="F22">
-        <v>1.098757440348294</v>
+        <v>0.6756550776027694</v>
       </c>
       <c r="G22">
-        <v>0.0007395557873040688</v>
+        <v>0.5193319147168012</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04534770013871814</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2994939752247348</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1379027463640909</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4961585719297901</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.062262686443887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8623878870382526</v>
+      </c>
+      <c r="Q22">
+        <v>1.680892571111173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.751159241000892</v>
+        <v>3.877571727032716</v>
       </c>
       <c r="C23">
-        <v>1.152686720518261</v>
+        <v>1.019370664528168</v>
       </c>
       <c r="D23">
-        <v>0.03691668479666532</v>
+        <v>0.07958933271822843</v>
       </c>
       <c r="E23">
-        <v>2.644382363287576</v>
+        <v>2.352650902936404</v>
       </c>
       <c r="F23">
-        <v>1.056082249980903</v>
+        <v>0.6526741995275529</v>
       </c>
       <c r="G23">
-        <v>0.0007417829347003533</v>
+        <v>0.5008702277324204</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.04258793495673041</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.292622366279474</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1361422867137314</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.499514410855376</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.944116540809546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8516825859299644</v>
+      </c>
+      <c r="Q23">
+        <v>1.627248673335146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.051298764839885</v>
+        <v>3.332112937536692</v>
       </c>
       <c r="C24">
-        <v>0.9912007489061239</v>
+        <v>0.8813871237113915</v>
       </c>
       <c r="D24">
-        <v>0.03229571014876598</v>
+        <v>0.06862484114604683</v>
       </c>
       <c r="E24">
-        <v>2.206895960418933</v>
+        <v>2.020514617308137</v>
       </c>
       <c r="F24">
-        <v>0.9005563401891408</v>
+        <v>0.5676041555025932</v>
       </c>
       <c r="G24">
-        <v>0.0007502954478565405</v>
+        <v>0.4327056045067081</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03274871392705014</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2675695788572625</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1305513725135441</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5148706778057317</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.516623472838376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8126445633508581</v>
+      </c>
+      <c r="Q24">
+        <v>1.429826002845431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.307439118616003</v>
+        <v>2.744400949600163</v>
       </c>
       <c r="C25">
-        <v>0.819140975893248</v>
+        <v>0.7326675986352882</v>
       </c>
       <c r="D25">
-        <v>0.02732452594122492</v>
+        <v>0.05678129542686605</v>
       </c>
       <c r="E25">
-        <v>1.759949175198344</v>
+        <v>1.665257589459245</v>
       </c>
       <c r="F25">
-        <v>0.7435453413936841</v>
+        <v>0.4794714672116314</v>
       </c>
       <c r="G25">
-        <v>0.0007596939771575123</v>
+        <v>0.362394747152095</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02325066705991219</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2423803423527318</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1265641872201115</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5364864080669847</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.090711759122769</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7734595267523332</v>
+      </c>
+      <c r="Q25">
+        <v>1.227501868753791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.311539475890754</v>
+        <v>2.255384212402134</v>
       </c>
       <c r="C2">
-        <v>0.6230999149370291</v>
+        <v>0.6581894592820277</v>
       </c>
       <c r="D2">
-        <v>0.04803610698458982</v>
+        <v>0.05042780742726904</v>
       </c>
       <c r="E2">
-        <v>1.40533533673387</v>
+        <v>1.397777578958511</v>
       </c>
       <c r="F2">
-        <v>0.4171523129321599</v>
+        <v>0.4065879116434061</v>
       </c>
       <c r="G2">
-        <v>0.3128793325521286</v>
+        <v>0.2893149729786586</v>
       </c>
       <c r="H2">
-        <v>0.01703255041029095</v>
+        <v>0.01614601286110484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2251802522341535</v>
+        <v>0.2684921927745876</v>
       </c>
       <c r="K2">
-        <v>0.125144971613647</v>
+        <v>0.1216370287278252</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1012394003516537</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.016666381812799</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.746841812291791</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.086103868445974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7793491870813938</v>
+      </c>
+      <c r="S2">
+        <v>1.056683657792689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.017794310379315</v>
+        <v>1.975053960190138</v>
       </c>
       <c r="C3">
-        <v>0.5487294939716492</v>
+        <v>0.5743787242332132</v>
       </c>
       <c r="D3">
-        <v>0.04208921018738465</v>
+        <v>0.04394401495894584</v>
       </c>
       <c r="E3">
-        <v>1.229782808969617</v>
+        <v>1.223594303703806</v>
       </c>
       <c r="F3">
-        <v>0.3762687894292469</v>
+        <v>0.369159882355568</v>
       </c>
       <c r="G3">
-        <v>0.2804917670887903</v>
+        <v>0.2593551478171463</v>
       </c>
       <c r="H3">
-        <v>0.01321623683351997</v>
+        <v>0.01254153004713071</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2142568111787426</v>
+        <v>0.258222373392293</v>
       </c>
       <c r="K3">
-        <v>0.1250168663526026</v>
+        <v>0.1229747038644611</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1061409725707243</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01336686900117101</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.730068083940381</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9942751995196204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7554676794357249</v>
+      </c>
+      <c r="S3">
+        <v>0.9754425943366698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837151126568045</v>
+        <v>1.802360029717562</v>
       </c>
       <c r="C4">
-        <v>0.5029874792629982</v>
+        <v>0.5229993007852727</v>
       </c>
       <c r="D4">
-        <v>0.03842647643988073</v>
+        <v>0.03996064004881106</v>
       </c>
       <c r="E4">
-        <v>1.122156251399687</v>
+        <v>1.116770693405826</v>
       </c>
       <c r="F4">
-        <v>0.3517539148517344</v>
+        <v>0.3466410283543269</v>
       </c>
       <c r="G4">
-        <v>0.2611093837930198</v>
+        <v>0.2414187596247075</v>
       </c>
       <c r="H4">
-        <v>0.01104235655624386</v>
+        <v>0.01048646573187534</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2078784158366318</v>
+        <v>0.2520706786280655</v>
       </c>
       <c r="K4">
-        <v>0.1253143966464982</v>
+        <v>0.1240810876956804</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.109352279409535</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01186274245447461</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7203541007822096</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.939639812685698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7414550957887087</v>
+      </c>
+      <c r="S4">
+        <v>0.9268959588756616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.763455447156247</v>
+        <v>1.731835149769381</v>
       </c>
       <c r="C5">
-        <v>0.4843249420085272</v>
+        <v>0.5020793653010287</v>
       </c>
       <c r="D5">
-        <v>0.03693087730838585</v>
+        <v>0.03833662197619958</v>
       </c>
       <c r="E5">
-        <v>1.078320633492595</v>
+        <v>1.073254241490744</v>
       </c>
       <c r="F5">
-        <v>0.3419007407977617</v>
+        <v>0.3375712913880946</v>
       </c>
       <c r="G5">
-        <v>0.2533273248675201</v>
+        <v>0.2342145861141276</v>
       </c>
       <c r="H5">
-        <v>0.01019524420147297</v>
+        <v>0.009685238232775079</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2053571750384648</v>
+        <v>0.2496001822305089</v>
       </c>
       <c r="K5">
-        <v>0.1255252498626795</v>
+        <v>0.1245997992798706</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1107115847093745</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01137821500608727</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7165373577762963</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9177835197155702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7359040945149715</v>
+      </c>
+      <c r="S5">
+        <v>0.907422541089062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.751213067535787</v>
+        <v>1.720115241811214</v>
       </c>
       <c r="C6">
-        <v>0.4812246228444792</v>
+        <v>0.4986066141902086</v>
       </c>
       <c r="D6">
-        <v>0.03668234825096306</v>
+        <v>0.0380669040168371</v>
       </c>
       <c r="E6">
-        <v>1.071042644695893</v>
+        <v>1.066028805334923</v>
       </c>
       <c r="F6">
-        <v>0.3402725815656424</v>
+        <v>0.3360714582089983</v>
       </c>
       <c r="G6">
-        <v>0.2520418601858907</v>
+        <v>0.233024387585175</v>
       </c>
       <c r="H6">
-        <v>0.01005681378974708</v>
+        <v>0.009554282245117507</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2049431046877999</v>
+        <v>0.2491920876573701</v>
       </c>
       <c r="K6">
-        <v>0.1255655317854707</v>
+        <v>0.1246899197455154</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1109403555085358</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01130543643817727</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7159120031678796</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9141780520987481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7349918494821139</v>
+      </c>
+      <c r="S6">
+        <v>0.9042069574560401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.836157587429483</v>
+        <v>1.800270523556748</v>
       </c>
       <c r="C7">
-        <v>0.502735883341046</v>
+        <v>0.5219674950134277</v>
       </c>
       <c r="D7">
-        <v>0.0384063186387209</v>
+        <v>0.0400358460484469</v>
       </c>
       <c r="E7">
-        <v>1.121564998731984</v>
+        <v>1.116136722712426</v>
       </c>
       <c r="F7">
-        <v>0.3516204916094736</v>
+        <v>0.3457835945382755</v>
       </c>
       <c r="G7">
-        <v>0.2610039740664334</v>
+        <v>0.2443011714068106</v>
       </c>
       <c r="H7">
-        <v>0.01103078011030054</v>
+        <v>0.01047068750971725</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2078441036310039</v>
+        <v>0.2477036758289444</v>
       </c>
       <c r="K7">
-        <v>0.125316883919691</v>
+        <v>0.1238653631395561</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1092467493928275</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01180553112575389</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7203020596268743</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9393434393668656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.741952851239887</v>
+      </c>
+      <c r="S7">
+        <v>0.9242583229978578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.210307763012338</v>
+        <v>2.15502173626453</v>
       </c>
       <c r="C8">
-        <v>0.5974715848940946</v>
+        <v>0.6267433961586732</v>
       </c>
       <c r="D8">
-        <v>0.04598786358263851</v>
+        <v>0.04852011078838103</v>
       </c>
       <c r="E8">
-        <v>1.344759782303598</v>
+        <v>1.337526945027605</v>
       </c>
       <c r="F8">
-        <v>0.4029269272578659</v>
+        <v>0.3911314959351557</v>
       </c>
       <c r="G8">
-        <v>0.3016012448466938</v>
+        <v>0.2888834064182646</v>
       </c>
       <c r="H8">
-        <v>0.01567919140461793</v>
+        <v>0.0148504193115937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2213427869091902</v>
+        <v>0.2507227217914334</v>
       </c>
       <c r="K8">
-        <v>0.1250196601687996</v>
+        <v>0.1213076098543944</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1025279982812588</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0152088747638075</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.740933455608058</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.054059233832731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7729461904711457</v>
+      </c>
+      <c r="S8">
+        <v>1.020480148517862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.942349470451745</v>
+        <v>2.850692489870255</v>
       </c>
       <c r="C9">
-        <v>0.7827637689490246</v>
+        <v>0.8357087303709534</v>
       </c>
       <c r="D9">
-        <v>0.06077400546488576</v>
+        <v>0.06479569236017113</v>
       </c>
       <c r="E9">
-        <v>1.784610010620213</v>
+        <v>1.773634594576578</v>
       </c>
       <c r="F9">
-        <v>0.5087242289232208</v>
+        <v>0.4868326277681518</v>
       </c>
       <c r="G9">
-        <v>0.3856960507812772</v>
+        <v>0.3695080375765087</v>
       </c>
       <c r="H9">
-        <v>0.02631780805670347</v>
+        <v>0.02487524325745327</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.250641357192336</v>
+        <v>0.2733411730403787</v>
       </c>
       <c r="K9">
-        <v>0.1276561567730745</v>
+        <v>0.1195397627059549</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09141002332678383</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02633284656802459</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7862940907917846</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.294378032333043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.837020961971362</v>
+      </c>
+      <c r="S9">
+        <v>1.229616382728551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.468512121212598</v>
+        <v>3.342720814913378</v>
       </c>
       <c r="C10">
-        <v>0.9128801202501222</v>
+        <v>0.978386308980248</v>
       </c>
       <c r="D10">
-        <v>0.07250386858086699</v>
+        <v>0.07825370045555502</v>
       </c>
       <c r="E10">
-        <v>2.006799136532692</v>
+        <v>1.992858065483929</v>
       </c>
       <c r="F10">
-        <v>0.583662010000829</v>
+        <v>0.5497369938612309</v>
       </c>
       <c r="G10">
-        <v>0.4440356278180388</v>
+        <v>0.4435877255513816</v>
       </c>
       <c r="H10">
-        <v>0.03448144560635713</v>
+        <v>0.03250395150045904</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2709049897842704</v>
+        <v>0.2642322147236769</v>
       </c>
       <c r="K10">
-        <v>0.1298341148852913</v>
+        <v>0.1170615977294993</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08320152314433393</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03600455530327551</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8288731668397276</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.460947285656317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8970811960232226</v>
+      </c>
+      <c r="S10">
+        <v>1.358636091869727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.606915577196389</v>
+        <v>3.464119060150665</v>
       </c>
       <c r="C11">
-        <v>0.9206707954785429</v>
+        <v>0.975610051051035</v>
       </c>
       <c r="D11">
-        <v>0.08606952928728617</v>
+        <v>0.09365622786919658</v>
       </c>
       <c r="E11">
-        <v>1.308497107797365</v>
+        <v>1.296081061854522</v>
       </c>
       <c r="F11">
-        <v>0.5607386358347242</v>
+        <v>0.5186015692567523</v>
       </c>
       <c r="G11">
-        <v>0.4125706678967873</v>
+        <v>0.4524278143425988</v>
       </c>
       <c r="H11">
-        <v>0.04924895636024473</v>
+        <v>0.04726946709516255</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2521764822756722</v>
+        <v>0.202996038773712</v>
       </c>
       <c r="K11">
-        <v>0.1139723680709892</v>
+        <v>0.1004284830905142</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07455030283676223</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03340736035897862</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9024615302943459</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.355164336326226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9836656375309474</v>
+      </c>
+      <c r="S11">
+        <v>1.229395783041355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.611633261167583</v>
+        <v>3.466094350892547</v>
       </c>
       <c r="C12">
-        <v>0.8999937350293692</v>
+        <v>0.9463868886419959</v>
       </c>
       <c r="D12">
-        <v>0.09557263071728528</v>
+        <v>0.1040115955191396</v>
       </c>
       <c r="E12">
-        <v>0.8053573381471182</v>
+        <v>0.7947891187057223</v>
       </c>
       <c r="F12">
-        <v>0.5257425630384418</v>
+        <v>0.4822067503382286</v>
       </c>
       <c r="G12">
-        <v>0.3747821497164665</v>
+        <v>0.4324660306329093</v>
       </c>
       <c r="H12">
-        <v>0.08462372839539967</v>
+        <v>0.08273781709682737</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2322977162236555</v>
+        <v>0.1711888400904087</v>
       </c>
       <c r="K12">
-        <v>0.1006029419663861</v>
+        <v>0.08830253077046102</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06964230018725637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02948464826737229</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9583582311066721</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.233463077684291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.044608846908275</v>
+      </c>
+      <c r="S12">
+        <v>1.105691740041948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.513887195995551</v>
+        <v>3.379468977178419</v>
       </c>
       <c r="C13">
-        <v>0.8564677175295685</v>
+        <v>0.8972661573565688</v>
       </c>
       <c r="D13">
-        <v>0.1023835808440481</v>
+        <v>0.1105386705958296</v>
       </c>
       <c r="E13">
-        <v>0.4231948684062274</v>
+        <v>0.4146638271934009</v>
       </c>
       <c r="F13">
-        <v>0.4795043586558805</v>
+        <v>0.4410898527804434</v>
       </c>
       <c r="G13">
-        <v>0.3300634650546499</v>
+        <v>0.3824630531872089</v>
       </c>
       <c r="H13">
-        <v>0.1371391196472018</v>
+        <v>0.1354260002455447</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2103935986551591</v>
+        <v>0.1609543787901728</v>
       </c>
       <c r="K13">
-        <v>0.08829736416724288</v>
+        <v>0.07899338865679795</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06689968050605621</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02463924237872206</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.002771311769465</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.092750448883578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.085620529822506</v>
+      </c>
+      <c r="S13">
+        <v>0.9828473626210723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.399609182779841</v>
+        <v>3.278899607363144</v>
       </c>
       <c r="C14">
-        <v>0.8160046103403431</v>
+        <v>0.8540756693876403</v>
       </c>
       <c r="D14">
-        <v>0.1059322499893938</v>
+        <v>0.1133404297664669</v>
       </c>
       <c r="E14">
-        <v>0.2289452502351779</v>
+        <v>0.221794182179103</v>
       </c>
       <c r="F14">
-        <v>0.4424567538677664</v>
+        <v>0.4101770478624047</v>
       </c>
       <c r="G14">
-        <v>0.2961315269281641</v>
+        <v>0.3360643108871386</v>
       </c>
       <c r="H14">
-        <v>0.184373303294052</v>
+        <v>0.1828046786911557</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1943379407134245</v>
+        <v>0.1615965808816142</v>
       </c>
       <c r="K14">
-        <v>0.08032549774280717</v>
+        <v>0.07368513137007326</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06579904248047352</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02095933634236857</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.028538413075296</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9871299290523154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.104988594964794</v>
+      </c>
+      <c r="S14">
+        <v>0.8971257749811059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.350222124345294</v>
+        <v>3.235476720098632</v>
       </c>
       <c r="C15">
-        <v>0.8013372595220574</v>
+        <v>0.8391564876923496</v>
       </c>
       <c r="D15">
-        <v>0.1061345719917455</v>
+        <v>0.1131273366868584</v>
       </c>
       <c r="E15">
-        <v>0.1907094756445993</v>
+        <v>0.1839369678634633</v>
       </c>
       <c r="F15">
-        <v>0.4310812263000443</v>
+        <v>0.4014076679344569</v>
       </c>
       <c r="G15">
-        <v>0.2863157017938107</v>
+        <v>0.3196718925768636</v>
       </c>
       <c r="H15">
-        <v>0.1961819927512636</v>
+        <v>0.1946692653603321</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1899951322878195</v>
+        <v>0.1651013763873763</v>
       </c>
       <c r="K15">
-        <v>0.07855417287026611</v>
+        <v>0.07282669799027097</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06586850741178463</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01986687424556699</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.031835914920805</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.957192162289175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.10501167677522</v>
+      </c>
+      <c r="S15">
+        <v>0.8752737153604073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.146135322655198</v>
+        <v>3.054195307904195</v>
       </c>
       <c r="C16">
-        <v>0.75561361853363</v>
+        <v>0.7960811301425963</v>
       </c>
       <c r="D16">
-        <v>0.09940642011672196</v>
+        <v>0.1044969926349637</v>
       </c>
       <c r="E16">
-        <v>0.187154437642576</v>
+        <v>0.1810256080186434</v>
       </c>
       <c r="F16">
-        <v>0.4088971789023148</v>
+        <v>0.3888822213813938</v>
       </c>
       <c r="G16">
-        <v>0.2711062297088063</v>
+        <v>0.2752120703412544</v>
       </c>
       <c r="H16">
-        <v>0.1808726671904708</v>
+        <v>0.1795808615167971</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1859361268822255</v>
+        <v>0.1956287704783506</v>
       </c>
       <c r="K16">
-        <v>0.07997216838002608</v>
+        <v>0.0767107287692923</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06919750296572147</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01774610953070876</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.001361200124748</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.916261967271538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.060258557450979</v>
+      </c>
+      <c r="S16">
+        <v>0.862904037505217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.050190425270728</v>
+        <v>2.966640948556233</v>
       </c>
       <c r="C17">
-        <v>0.7418107277823083</v>
+        <v>0.7846430634121191</v>
       </c>
       <c r="D17">
-        <v>0.09238095963446824</v>
+        <v>0.09667825263163365</v>
       </c>
       <c r="E17">
-        <v>0.2739028841677325</v>
+        <v>0.2676279449958656</v>
       </c>
       <c r="F17">
-        <v>0.4114869477761616</v>
+        <v>0.3948650526642012</v>
       </c>
       <c r="G17">
-        <v>0.2772801272933805</v>
+        <v>0.26872872862441</v>
       </c>
       <c r="H17">
-        <v>0.1421582190753128</v>
+        <v>0.1409556517820505</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1913262616014322</v>
+        <v>0.2166536767186855</v>
       </c>
       <c r="K17">
-        <v>0.08530470197416662</v>
+        <v>0.08247938180073788</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07257622173140987</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01789837871743138</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9647470509696916</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.940527615179775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.017732439108045</v>
+      </c>
+      <c r="S17">
+        <v>0.8966813565295695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.035997722516527</v>
+        <v>2.952218700207482</v>
       </c>
       <c r="C18">
-        <v>0.7541359190756509</v>
+        <v>0.8011213207781509</v>
       </c>
       <c r="D18">
-        <v>0.08449769175216915</v>
+        <v>0.08855422530277224</v>
       </c>
       <c r="E18">
-        <v>0.5120568545697708</v>
+        <v>0.5048854621767944</v>
       </c>
       <c r="F18">
-        <v>0.4358512059991924</v>
+        <v>0.4191693819733686</v>
       </c>
       <c r="G18">
-        <v>0.3031644196981347</v>
+        <v>0.2877062417538099</v>
       </c>
       <c r="H18">
-        <v>0.09021960325883072</v>
+        <v>0.08900104350500726</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2056046299515941</v>
+        <v>0.2371999489996597</v>
       </c>
       <c r="K18">
-        <v>0.09483640463874821</v>
+        <v>0.09109108297686674</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07660271793276685</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02013311954100594</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9195805740940273</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.025252272772292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9712080025650636</v>
+      </c>
+      <c r="S18">
+        <v>0.9802226337721152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.08892504487568</v>
+        <v>2.998982458386081</v>
       </c>
       <c r="C19">
-        <v>0.7872876920282295</v>
+        <v>0.8404006111218223</v>
       </c>
       <c r="D19">
-        <v>0.07675257161464089</v>
+        <v>0.08087875282586054</v>
       </c>
       <c r="E19">
-        <v>0.9534261548603951</v>
+        <v>0.9446003875869593</v>
       </c>
       <c r="F19">
-        <v>0.47677755575139</v>
+        <v>0.4577403833894707</v>
       </c>
       <c r="G19">
-        <v>0.3444616222017487</v>
+        <v>0.3247427073392117</v>
       </c>
       <c r="H19">
-        <v>0.04817274330528676</v>
+        <v>0.04682814588035455</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.226463114543904</v>
+        <v>0.2587604920747424</v>
       </c>
       <c r="K19">
-        <v>0.1075929653948897</v>
+        <v>0.1019084760108768</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08099814186168253</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02415219092879894</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8720056139338226</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.156492244617624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9250361265914222</v>
+      </c>
+      <c r="S19">
+        <v>1.102986678101445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.329893198600814</v>
+        <v>3.217478803025472</v>
       </c>
       <c r="C20">
-        <v>0.8784845818219651</v>
+        <v>0.9434437711206556</v>
       </c>
       <c r="D20">
-        <v>0.06946038158334034</v>
+        <v>0.07438071003461033</v>
       </c>
       <c r="E20">
-        <v>1.944019146859318</v>
+        <v>1.931059361056299</v>
       </c>
       <c r="F20">
-        <v>0.5634239314373559</v>
+        <v>0.5354082410839283</v>
       </c>
       <c r="G20">
-        <v>0.428183255280743</v>
+        <v>0.4124773425155439</v>
       </c>
       <c r="H20">
-        <v>0.03220092742240066</v>
+        <v>0.03039532955768243</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2653003282500208</v>
+        <v>0.2809610043312034</v>
       </c>
       <c r="K20">
-        <v>0.129007898090336</v>
+        <v>0.118273014519513</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08551476171893313</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03358109395017372</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8176639551833347</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.415486188158354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8789440134890327</v>
+      </c>
+      <c r="S20">
+        <v>1.331847153766006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.751668296465027</v>
+        <v>3.587918663953133</v>
       </c>
       <c r="C21">
-        <v>0.9875247773132685</v>
+        <v>1.048767060851958</v>
       </c>
       <c r="D21">
-        <v>0.07706071784863866</v>
+        <v>0.08532745170436584</v>
       </c>
       <c r="E21">
-        <v>2.27578029148934</v>
+        <v>2.258918041414802</v>
       </c>
       <c r="F21">
-        <v>0.6327727992021295</v>
+        <v>0.5801823151163674</v>
       </c>
       <c r="G21">
-        <v>0.4848985638213321</v>
+        <v>0.542724596511917</v>
       </c>
       <c r="H21">
-        <v>0.04023187930770122</v>
+        <v>0.03779165880610913</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2867053613820332</v>
+        <v>0.2091759315943804</v>
       </c>
       <c r="K21">
-        <v>0.1346996796165172</v>
+        <v>0.1155536912350179</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07914006784768723</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04127501438883741</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8424625933209029</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.580896038070364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.929988214217758</v>
+      </c>
+      <c r="S21">
+        <v>1.419009318145072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.021754784532106</v>
+        <v>3.822413256223285</v>
       </c>
       <c r="C22">
-        <v>1.055837565074199</v>
+        <v>1.112784390978504</v>
       </c>
       <c r="D22">
-        <v>0.08248348367337854</v>
+        <v>0.09316890726127269</v>
       </c>
       <c r="E22">
-        <v>2.440834272279361</v>
+        <v>2.421477851120116</v>
       </c>
       <c r="F22">
-        <v>0.6756550776027694</v>
+        <v>0.6057387453951009</v>
       </c>
       <c r="G22">
-        <v>0.5193319147168012</v>
+        <v>0.6347782825071562</v>
       </c>
       <c r="H22">
-        <v>0.04534770013871814</v>
+        <v>0.04247703911333245</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2994939752247348</v>
+        <v>0.1658377607612564</v>
       </c>
       <c r="K22">
-        <v>0.1379027463640909</v>
+        <v>0.1130011209836788</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0749062914716756</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04619329108490788</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8623878870382526</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.680892571111173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9684788433656877</v>
+      </c>
+      <c r="S22">
+        <v>1.46406988699087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.877571727032716</v>
+        <v>3.700473082087115</v>
       </c>
       <c r="C23">
-        <v>1.019370664528168</v>
+        <v>1.080738777802225</v>
       </c>
       <c r="D23">
-        <v>0.07958933271822843</v>
+        <v>0.08869376345786861</v>
       </c>
       <c r="E23">
-        <v>2.352650902936404</v>
+        <v>2.334747575923402</v>
       </c>
       <c r="F23">
-        <v>0.6526741995275529</v>
+        <v>0.5940327830770329</v>
       </c>
       <c r="G23">
-        <v>0.5008702277324204</v>
+        <v>0.5759641729389955</v>
       </c>
       <c r="H23">
-        <v>0.04258793495673041</v>
+        <v>0.03996628486637599</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.292622366279474</v>
+        <v>0.1960838012510138</v>
       </c>
       <c r="K23">
-        <v>0.1361422867137314</v>
+        <v>0.1148861799779475</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07731384453144052</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04378571737000669</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8516825859299644</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.627248673335146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9460512069858282</v>
+      </c>
+      <c r="S23">
+        <v>1.446205399888896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.332112937536692</v>
+        <v>3.219333028023527</v>
       </c>
       <c r="C24">
-        <v>0.8813871237113915</v>
+        <v>0.9470471981765343</v>
       </c>
       <c r="D24">
-        <v>0.06862484114604683</v>
+        <v>0.07352238379714038</v>
       </c>
       <c r="E24">
-        <v>2.020514617308137</v>
+        <v>2.007308622907772</v>
       </c>
       <c r="F24">
-        <v>0.5676041555025932</v>
+        <v>0.5394483400905727</v>
       </c>
       <c r="G24">
-        <v>0.4327056045067081</v>
+        <v>0.4161175109269379</v>
       </c>
       <c r="H24">
-        <v>0.03274871392705014</v>
+        <v>0.03092127959306046</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2675695788572625</v>
+        <v>0.2838587208095475</v>
       </c>
       <c r="K24">
-        <v>0.1305513725135441</v>
+        <v>0.1196181222830113</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08609466754293571</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0340351348595167</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8126445633508581</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.429826002845431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8738197809322941</v>
+      </c>
+      <c r="S24">
+        <v>1.345582126595957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.744400949600163</v>
+        <v>2.664531167592429</v>
       </c>
       <c r="C25">
-        <v>0.7326675986352882</v>
+        <v>0.7801772430850633</v>
       </c>
       <c r="D25">
-        <v>0.05678129542686605</v>
+        <v>0.06024909952015634</v>
       </c>
       <c r="E25">
-        <v>1.665257589459245</v>
+        <v>1.655412544269439</v>
       </c>
       <c r="F25">
-        <v>0.4794714672116314</v>
+        <v>0.4614955670567369</v>
       </c>
       <c r="G25">
-        <v>0.362394747152095</v>
+        <v>0.3428414520347332</v>
       </c>
       <c r="H25">
-        <v>0.02325066705991219</v>
+        <v>0.02199600604505347</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2423803423527318</v>
+        <v>0.2730815194253751</v>
       </c>
       <c r="K25">
-        <v>0.1265641872201115</v>
+        <v>0.1200397748482089</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09437591821160396</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02295722639467357</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7734595267523332</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.227501868753791</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8182028907395704</v>
+      </c>
+      <c r="S25">
+        <v>1.174992797877536</v>
       </c>
     </row>
   </sheetData>
